--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57182</v>
+        <v>54155</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucca Alves</t>
+          <t>Manuela Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>7624.94</v>
+        <v>4828.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93363</v>
+        <v>75368</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaac Fogaça</t>
+          <t>Heloísa Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>7661.34</v>
+        <v>4839.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13359</v>
+        <v>60405</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Heloísa Alves</t>
+          <t>Maria Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>9780.299999999999</v>
+        <v>11081.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72422</v>
+        <v>36153</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Benício Moraes</t>
+          <t>Stephany Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,60 +577,60 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>5909.64</v>
+        <v>6755.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98388</v>
+        <v>68439</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elisa Sales</t>
+          <t>Pedro Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>4669.65</v>
+        <v>4265.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31590</v>
+        <v>80062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Pinto</t>
+          <t>Davi Luiz Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>3899.72</v>
+        <v>7469.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>353</v>
+        <v>40504</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Juan da Cruz</t>
+          <t>Sr. Emanuel da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>3003.46</v>
+        <v>5520.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51897</v>
+        <v>30021</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Eduarda Pinto</t>
+          <t>Raul Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>7780.89</v>
+        <v>6682.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40760</v>
+        <v>67036</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Olivia Porto</t>
+          <t>Lorena Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>7975.48</v>
+        <v>4030.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40394</v>
+        <v>95015</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Costa</t>
+          <t>Sophie Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>11582.56</v>
+        <v>8998.370000000001</v>
       </c>
     </row>
   </sheetData>
